--- a/SchedulingData/dynamic10/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_20.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>229.26</v>
+        <v>231.52</v>
       </c>
       <c r="D2" t="n">
-        <v>295.22</v>
+        <v>269.34</v>
       </c>
       <c r="E2" t="n">
-        <v>13.108</v>
+        <v>14.216</v>
       </c>
     </row>
     <row r="3">
@@ -485,131 +485,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>219.2</v>
+        <v>228.06</v>
       </c>
       <c r="D3" t="n">
-        <v>259.16</v>
+        <v>321.16</v>
       </c>
       <c r="E3" t="n">
-        <v>14.744</v>
+        <v>10.064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>259.16</v>
+        <v>261</v>
       </c>
       <c r="D4" t="n">
-        <v>318.02</v>
+        <v>314.12</v>
       </c>
       <c r="E4" t="n">
-        <v>11.468</v>
+        <v>11.208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>261.82</v>
+        <v>321.16</v>
       </c>
       <c r="D5" t="n">
-        <v>300.34</v>
+        <v>361.84</v>
       </c>
       <c r="E5" t="n">
-        <v>9.756</v>
+        <v>7.616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>236.92</v>
+        <v>221.06</v>
       </c>
       <c r="D6" t="n">
-        <v>303.12</v>
+        <v>272.52</v>
       </c>
       <c r="E6" t="n">
-        <v>11.328</v>
+        <v>15.888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>318.02</v>
+        <v>272.52</v>
       </c>
       <c r="D7" t="n">
-        <v>374.62</v>
+        <v>311.9</v>
       </c>
       <c r="E7" t="n">
-        <v>9.388</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295.22</v>
+        <v>311.9</v>
       </c>
       <c r="D8" t="n">
-        <v>359.44</v>
+        <v>351.96</v>
       </c>
       <c r="E8" t="n">
-        <v>10.776</v>
+        <v>10.704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>359.44</v>
+        <v>314.12</v>
       </c>
       <c r="D9" t="n">
-        <v>403.82</v>
+        <v>348.84</v>
       </c>
       <c r="E9" t="n">
-        <v>7.968</v>
+        <v>8.875999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -618,340 +618,340 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>374.62</v>
+        <v>361.84</v>
       </c>
       <c r="D10" t="n">
-        <v>418.06</v>
+        <v>429.14</v>
       </c>
       <c r="E10" t="n">
-        <v>6.684</v>
+        <v>5.496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>208.1</v>
+        <v>269.34</v>
       </c>
       <c r="D11" t="n">
-        <v>265.7</v>
+        <v>312.04</v>
       </c>
       <c r="E11" t="n">
-        <v>14.62</v>
+        <v>11.576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>265.7</v>
+        <v>351.96</v>
       </c>
       <c r="D12" t="n">
-        <v>334.2</v>
+        <v>406.06</v>
       </c>
       <c r="E12" t="n">
-        <v>11.38</v>
+        <v>7.404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>303.12</v>
+        <v>247.86</v>
       </c>
       <c r="D13" t="n">
-        <v>348.72</v>
+        <v>313.26</v>
       </c>
       <c r="E13" t="n">
-        <v>8.907999999999999</v>
+        <v>10.324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>348.72</v>
+        <v>406.06</v>
       </c>
       <c r="D14" t="n">
-        <v>401.12</v>
+        <v>444.06</v>
       </c>
       <c r="E14" t="n">
-        <v>6.268</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>334.2</v>
+        <v>312.04</v>
       </c>
       <c r="D15" t="n">
-        <v>381.32</v>
+        <v>381.04</v>
       </c>
       <c r="E15" t="n">
-        <v>8.788</v>
+        <v>8.276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>300.34</v>
+        <v>348.84</v>
       </c>
       <c r="D16" t="n">
-        <v>351.6</v>
+        <v>397.44</v>
       </c>
       <c r="E16" t="n">
-        <v>6.74</v>
+        <v>5.636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>274.34</v>
+        <v>381.04</v>
       </c>
       <c r="D17" t="n">
-        <v>322.26</v>
+        <v>443.34</v>
       </c>
       <c r="E17" t="n">
-        <v>11.884</v>
+        <v>5.636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>403.82</v>
+        <v>248.76</v>
       </c>
       <c r="D18" t="n">
-        <v>468.1</v>
+        <v>280.86</v>
       </c>
       <c r="E18" t="n">
-        <v>5.16</v>
+        <v>15.504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>322.26</v>
+        <v>429.14</v>
       </c>
       <c r="D19" t="n">
-        <v>386.16</v>
+        <v>478.76</v>
       </c>
       <c r="E19" t="n">
-        <v>8.584</v>
+        <v>3.164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>351.6</v>
+        <v>280.86</v>
       </c>
       <c r="D20" t="n">
-        <v>400.46</v>
+        <v>337</v>
       </c>
       <c r="E20" t="n">
-        <v>3.984</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>418.06</v>
+        <v>337</v>
       </c>
       <c r="D21" t="n">
-        <v>478.64</v>
+        <v>367.6</v>
       </c>
       <c r="E21" t="n">
-        <v>4.236</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>386.16</v>
+        <v>313.26</v>
       </c>
       <c r="D22" t="n">
-        <v>445.28</v>
+        <v>374.6</v>
       </c>
       <c r="E22" t="n">
-        <v>6.252</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>381.32</v>
+        <v>367.6</v>
       </c>
       <c r="D23" t="n">
-        <v>425.62</v>
+        <v>453.26</v>
       </c>
       <c r="E23" t="n">
-        <v>5.488</v>
+        <v>7.104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>401.12</v>
+        <v>374.6</v>
       </c>
       <c r="D24" t="n">
-        <v>477.56</v>
+        <v>406.92</v>
       </c>
       <c r="E24" t="n">
-        <v>3.244</v>
+        <v>4.708</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>468.1</v>
+        <v>397.44</v>
       </c>
       <c r="D25" t="n">
-        <v>500.9</v>
+        <v>446.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>400.46</v>
+        <v>406.92</v>
       </c>
       <c r="D26" t="n">
-        <v>448.26</v>
+        <v>460.26</v>
       </c>
       <c r="E26" t="n">
-        <v>1.824</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>448.26</v>
+        <v>443.34</v>
       </c>
       <c r="D27" t="n">
-        <v>516.51</v>
+        <v>477.82</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>2.828</v>
       </c>
     </row>
   </sheetData>
